--- a/_doc/UR消费者调研问卷-1021.xlsx
+++ b/_doc/UR消费者调研问卷-1021.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PjWeb\urWq\_doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="0" windowWidth="13470" windowHeight="7545"/>
+    <workbookView xWindow="9588" yWindow="0" windowWidth="13476" windowHeight="7548"/>
   </bookViews>
   <sheets>
     <sheet name="问卷" sheetId="1" r:id="rId1"/>
     <sheet name="其它事项" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
-  <si>
-    <t>UR消费者调研问卷（201510）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>区域：</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -49,18 +50,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>S2. 您的性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">女 …A    |   男 …B    </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">16岁以下 …A    |    17-24岁 …B    |    25-30岁 …C    |    31-35岁 …D    |    36-40岁 …E    |    41岁以上 …F    </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>B. 官方微博微信</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -73,18 +66,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>B. 主动与您聊天，一直尾随，有压迫感</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>C. 没有主动了解需求，员工只是自己在推荐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>A. 主动关注您的需求，推荐合适的产品/尺码并提供搭配建议，保持舒适的距离</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A. 试衣间整洁舒适，数量充足，店员有清晰指引</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -97,10 +82,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>A. 优雅名媛型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>C. 魅力潮流型</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -254,33 +235,6 @@
   </si>
   <si>
     <t>D. 杂志刊物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E. 其它（请注明：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>xxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -344,22 +298,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>A、橱窗奢华大气，整体布局整齐有序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B、店面设计一般，没有深刻印象</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>C. 门店设计风格不吸引，环境一般</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>D. 其它（请注明：xxxx）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A. 门店温度适中，音乐声柔和，环境整体感觉舒适</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -372,50 +314,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>. 其它（请注明：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>xxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A. 笑容亲切自然，有目光接触，主动热情地打招呼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -428,43 +326,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>. 其它（请注明：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>xxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A. 店员服务亲切到位，熟练掌握操作，迅速完成收银</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -485,16 +346,68 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Q1. 您从哪些渠道关注UR品牌？（多选）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q3. 您对门店环境的整体感觉与以下哪一项最符合？（单选）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q6. 您对试衣间环境的整体感觉与以下哪一项最符合？（单选）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q7. 您对收银服务的整体感觉与以下哪一项最符合？（单选）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q12. 不考虑品牌和价格的因素，您在购物时考虑得最多的3个因素是什么？（多选）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q13. 如果您是VIP，希望获得哪项尊享体验（多选）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q14. 您希望在官方微博微信了解哪些信息（多选）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1. 请选择您所光临的店铺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A. 主动关注您的需求，推荐合适的产品/尺码并提供搭配建议，保持舒适的距离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. 主动与您聊天，一直尾随，有压迫感</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">16岁以下 …A    |    17-24岁 …B    |    25-30岁 …C    |    31-35岁 …D    |    36-40岁 …E    |    41岁以上 …F    </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2. 您的性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Q2. 您对门店形象的整体感觉与以下哪一项最符合？（单选）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Q1. 您从哪些渠道关注UR品牌？（多选）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q3. 您对门店环境的整体感觉与以下哪一项最符合？（单选）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>A.橱窗奢华大气，整体布局整齐有序</t>
+  </si>
+  <si>
+    <t>B.店面设计一般，没有深刻印象</t>
+  </si>
+  <si>
+    <t>D. 其它（请注明：[_]）</t>
+  </si>
+  <si>
+    <t>E. 其它（请注明：[_]）</t>
   </si>
   <si>
     <t>Q4. 您对店员接待的整体感觉与以下哪一项最符合？（单选）</t>
@@ -505,27 +418,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Q6. 您对试衣间环境的整体感觉与以下哪一项最符合？（单选）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q7. 您对收银服务的整体感觉与以下哪一项最符合？（单选）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q12. 不考虑品牌和价格的因素，您在购物时考虑得最多的3个因素是什么？（多选）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q13. 如果您是VIP，希望获得哪项尊享体验（多选）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q14. 您希望在官方微博微信了解哪些信息（多选）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1. 请选择您所光临的店铺</t>
+    <t>A. 优雅名媛型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E. 其它（请注明：[_]）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR消费者调研问卷（201510）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,14 +479,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -895,6 +788,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,22 +806,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,6 +830,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -992,7 +888,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1034,7 +930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1069,7 +965,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1280,31 +1176,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="4.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="2"/>
@@ -1315,12 +1211,12 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1329,12 +1225,12 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1343,12 +1239,12 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1357,7 +1253,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="17"/>
       <c r="C6" s="3"/>
@@ -1367,9 +1263,9 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="3"/>
@@ -1379,7 +1275,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="17"/>
       <c r="C8" s="3"/>
@@ -1389,7 +1285,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="17"/>
       <c r="C9" s="3"/>
@@ -1399,7 +1295,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="17"/>
       <c r="C10" s="3"/>
@@ -1409,7 +1305,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="17"/>
       <c r="C11" s="3"/>
@@ -1419,9 +1315,9 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="3"/>
@@ -1431,10 +1327,10 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1443,7 +1339,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="17"/>
       <c r="C14" s="3"/>
@@ -1453,9 +1349,9 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="3"/>
@@ -1465,10 +1361,10 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="17" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1477,7 +1373,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="17"/>
       <c r="C17" s="3"/>
@@ -1487,9 +1383,9 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="3"/>
@@ -1499,10 +1395,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1511,10 +1407,10 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1523,10 +1419,10 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1535,10 +1431,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1547,10 +1443,10 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1559,7 +1455,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="17"/>
       <c r="C24" s="3"/>
@@ -1569,7 +1465,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>93</v>
       </c>
@@ -1581,10 +1477,10 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="17" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1593,10 +1489,10 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="17" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1605,10 +1501,10 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1617,10 +1513,10 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="17" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1629,7 +1525,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="17"/>
       <c r="C30" s="3"/>
@@ -1639,9 +1535,9 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1650,10 +1546,10 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1662,10 +1558,10 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1674,10 +1570,10 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="17" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1686,10 +1582,10 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1698,10 +1594,10 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="17" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1710,7 +1606,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="17"/>
       <c r="C37" s="3"/>
@@ -1720,9 +1616,9 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="3"/>
@@ -1732,10 +1628,10 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1744,10 +1640,10 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="17" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1756,10 +1652,10 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="17" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1768,10 +1664,10 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="17" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1780,7 +1676,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="17"/>
       <c r="C43" s="3"/>
@@ -1790,9 +1686,9 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="3"/>
@@ -1802,10 +1698,10 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="17" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1814,10 +1710,10 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="17" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1826,10 +1722,10 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1838,7 +1734,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="17"/>
       <c r="C48" s="3"/>
@@ -1848,9 +1744,9 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="3"/>
@@ -1860,10 +1756,10 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1872,10 +1768,10 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1884,10 +1780,10 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1896,7 +1792,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="17"/>
       <c r="C53" s="3"/>
@@ -1906,9 +1802,9 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="3"/>
@@ -1918,10 +1814,10 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="17" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1930,10 +1826,10 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="17" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1942,10 +1838,10 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1954,10 +1850,10 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="17" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1966,7 +1862,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="17"/>
       <c r="C59" s="3"/>
@@ -1976,9 +1872,9 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="3"/>
@@ -1988,10 +1884,10 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="17" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2000,10 +1896,10 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2012,10 +1908,10 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2024,10 +1920,10 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2036,10 +1932,10 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2048,10 +1944,10 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2060,7 +1956,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="17"/>
       <c r="C67" s="3"/>
@@ -2070,9 +1966,9 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="3"/>
@@ -2082,10 +1978,10 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2094,10 +1990,10 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2106,10 +2002,10 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2118,7 +2014,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="17"/>
       <c r="C72" s="3"/>
@@ -2128,9 +2024,9 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B73" s="17"/>
       <c r="C73" s="3"/>
@@ -2140,10 +2036,10 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2152,10 +2048,10 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2164,10 +2060,10 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2176,7 +2072,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="17"/>
       <c r="C77" s="3"/>
@@ -2186,9 +2082,9 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="3"/>
@@ -2198,10 +2094,10 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2210,10 +2106,10 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2222,10 +2118,10 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2234,7 +2130,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="17"/>
       <c r="C82" s="3"/>
@@ -2244,9 +2140,9 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B83" s="17"/>
       <c r="C83" s="3"/>
@@ -2256,117 +2152,117 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
-      <c r="B84" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="23"/>
+      <c r="B84" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="24"/>
       <c r="D84" s="4">
         <v>1</v>
       </c>
-      <c r="E84" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="23"/>
+      <c r="E84" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" s="24"/>
       <c r="G84" s="4">
         <v>7</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
-      <c r="B85" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" s="23"/>
+      <c r="B85" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="24"/>
       <c r="D85" s="4">
         <v>2</v>
       </c>
-      <c r="E85" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F85" s="23"/>
+      <c r="E85" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" s="24"/>
       <c r="G85" s="4">
         <v>8</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
-      <c r="B86" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C86" s="23"/>
+      <c r="B86" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="24"/>
       <c r="D86" s="4">
         <v>3</v>
       </c>
-      <c r="E86" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="23"/>
+      <c r="E86" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" s="24"/>
       <c r="G86" s="4">
         <v>9</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
-      <c r="B87" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" s="23"/>
+      <c r="B87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="24"/>
       <c r="D87" s="4">
         <v>4</v>
       </c>
-      <c r="E87" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F87" s="23"/>
+      <c r="E87" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="24"/>
       <c r="G87" s="4">
         <v>10</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
-      <c r="B88" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C88" s="23"/>
+      <c r="B88" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="24"/>
       <c r="D88" s="4">
         <v>5</v>
       </c>
-      <c r="E88" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F88" s="23"/>
+      <c r="E88" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="24"/>
       <c r="G88" s="4">
         <v>11</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
-      <c r="B89" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" s="23"/>
+      <c r="B89" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="24"/>
       <c r="D89" s="4">
         <v>6</v>
       </c>
-      <c r="E89" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F89" s="25"/>
-      <c r="G89" s="26"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E89" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" s="26"/>
+      <c r="G89" s="27"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="21"/>
       <c r="C90" s="5"/>
@@ -2375,9 +2271,9 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="5"/>
@@ -2386,10 +2282,10 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
@@ -2397,10 +2293,10 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
@@ -2408,10 +2304,10 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="6"/>
@@ -2419,10 +2315,10 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6"/>
@@ -2430,10 +2326,10 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="17" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="6"/>
@@ -2441,7 +2337,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="17"/>
       <c r="C97" s="5"/>
@@ -2450,9 +2346,9 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="5"/>
@@ -2461,10 +2357,10 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="6"/>
@@ -2472,10 +2368,10 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="6"/>
@@ -2483,10 +2379,10 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="6"/>
@@ -2494,10 +2390,10 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="6"/>
@@ -2505,10 +2401,10 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="6"/>
@@ -2518,11 +2414,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="E85:F85"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="E89:G89"/>
     <mergeCell ref="B86:C86"/>
@@ -2531,6 +2422,11 @@
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="E85:F85"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2546,35 +2442,35 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="9.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B2" s="15">
         <v>1000</v>
@@ -2591,9 +2487,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B3" s="15">
         <v>50</v>
@@ -2604,38 +2500,38 @@
       <c r="D3" s="28"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="30" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2646,5 +2542,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>